--- a/server/tempProff.xlsx
+++ b/server/tempProff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C75E6-DFE4-4D7C-8D7C-329708754277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B2E11-00A3-4E6F-922A-6EF681B9F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>facultyID</t>
   </si>
@@ -43,16 +43,60 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>kaju@univ.edu</t>
+  </si>
+  <si>
+    <t>raju@univ.edu</t>
+  </si>
+  <si>
+    <t>Dr. Kaju</t>
+  </si>
+  <si>
+    <t>Dr. raju</t>
+  </si>
+  <si>
+    <t>HoD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +119,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,15 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +437,61 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1234567899</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1234567898</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{20B5D9E8-A2AC-4C7D-9FA4-C3781C4947DC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DEA1F951-9969-4DD9-8441-B5D9157149C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/tempProff.xlsx
+++ b/server/tempProff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B2E11-00A3-4E6F-922A-6EF681B9F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494B17FC-88AB-42BD-8759-4F06263DD2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,12 +413,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -464,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
